--- a/内容销售看板20210521.xlsx
+++ b/内容销售看板20210521.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13420"/>
+    <workbookView windowWidth="28060" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>内容BU销售数据看板</t>
   </si>
@@ -121,43 +121,7 @@
     <t>复购率</t>
   </si>
   <si>
-    <t>华北大区</t>
-  </si>
-  <si>
-    <t>华东一区</t>
-  </si>
-  <si>
-    <t>华南大区</t>
-  </si>
-  <si>
-    <t>华东二区</t>
-  </si>
-  <si>
-    <t>华中大区</t>
-  </si>
-  <si>
-    <t>西南大区</t>
-  </si>
-  <si>
     <t>收入类别</t>
-  </si>
-  <si>
-    <t>精选&amp;优选平台</t>
-  </si>
-  <si>
-    <t>行业（平台包+人岗课）</t>
-  </si>
-  <si>
-    <t>在线课</t>
-  </si>
-  <si>
-    <t>线下课</t>
-  </si>
-  <si>
-    <t xml:space="preserve">公开课 </t>
-  </si>
-  <si>
-    <t>OMO项目</t>
   </si>
   <si>
     <t>各大区产品折扣价格分析</t>
@@ -208,14 +172,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="178" formatCode="#,##0_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="181" formatCode="0.00_ "/>
-    <numFmt numFmtId="182" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="183" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="184" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="182" formatCode="0_ "/>
+    <numFmt numFmtId="183" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="184" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -323,6 +287,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -337,10 +308,39 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -352,8 +352,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -368,31 +377,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,7 +386,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,44 +401,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,7 +415,22 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -524,19 +488,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,19 +512,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,49 +548,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,7 +578,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,7 +596,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,31 +626,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,8 +756,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -813,11 +786,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -837,17 +831,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -862,186 +850,162 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="183" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1049,224 +1013,224 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="9" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="10" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="10" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="10" fillId="6" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="10" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="10" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="10" fillId="6" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="6" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="6" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="9" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="8" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="9" fillId="6" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="8" fillId="6" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="百分比 2" xfId="2"/>
+    <cellStyle name="百分比 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="3" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="4" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="5" builtinId="41"/>
@@ -3107,7 +3071,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="375285" cy="333375"/>
@@ -3118,7 +3082,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="363220" y="7604125"/>
+          <a:off x="363220" y="7601585"/>
           <a:ext cx="375285" cy="333375"/>
           <a:chOff x="2908300" y="2946400"/>
           <a:chExt cx="447675" cy="341313"/>
@@ -3992,7 +3956,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="375285" cy="333375"/>
@@ -4003,7 +3967,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="363220" y="11898630"/>
+          <a:off x="363220" y="11896090"/>
           <a:ext cx="375285" cy="333375"/>
           <a:chOff x="2908300" y="2946400"/>
           <a:chExt cx="447675" cy="341313"/>
@@ -5134,14 +5098,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:T47"/>
+  <dimension ref="A1:T48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N43" sqref="N43:S47"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
@@ -5617,9 +5581,7 @@
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:20">
       <c r="A16" s="2"/>
-      <c r="B16" s="21" t="s">
-        <v>33</v>
-      </c>
+      <c r="B16" s="21"/>
       <c r="C16" s="22"/>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
@@ -5641,9 +5603,7 @@
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:20">
       <c r="A17" s="2"/>
-      <c r="B17" s="21" t="s">
-        <v>34</v>
-      </c>
+      <c r="B17" s="21"/>
       <c r="C17" s="14"/>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
@@ -5665,9 +5625,7 @@
     </row>
     <row r="18" ht="20" customHeight="1" spans="1:20">
       <c r="A18" s="2"/>
-      <c r="B18" s="21" t="s">
-        <v>35</v>
-      </c>
+      <c r="B18" s="21"/>
       <c r="C18" s="14"/>
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
@@ -5689,9 +5647,7 @@
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:20">
       <c r="A19" s="2"/>
-      <c r="B19" s="21" t="s">
-        <v>36</v>
-      </c>
+      <c r="B19" s="21"/>
       <c r="C19" s="14"/>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
@@ -5713,9 +5669,7 @@
     </row>
     <row r="20" ht="20" customHeight="1" spans="1:20">
       <c r="A20" s="2"/>
-      <c r="B20" s="21" t="s">
-        <v>37</v>
-      </c>
+      <c r="B20" s="21"/>
       <c r="C20" s="14"/>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
@@ -5737,9 +5691,7 @@
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:20">
       <c r="A21" s="2"/>
-      <c r="B21" s="21" t="s">
-        <v>38</v>
-      </c>
+      <c r="B21" s="21"/>
       <c r="C21" s="14"/>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
@@ -5784,7 +5736,7 @@
     <row r="23" ht="20" customHeight="1" spans="1:20">
       <c r="A23" s="7"/>
       <c r="B23" s="19" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>4</v>
@@ -5833,9 +5785,7 @@
     </row>
     <row r="24" ht="20" customHeight="1" spans="1:20">
       <c r="A24" s="2"/>
-      <c r="B24" s="21" t="s">
-        <v>40</v>
-      </c>
+      <c r="B24" s="21"/>
       <c r="C24" s="22"/>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
@@ -5855,11 +5805,9 @@
       <c r="S24" s="26"/>
       <c r="T24" s="69"/>
     </row>
-    <row r="25" ht="29" spans="1:20">
+    <row r="25" ht="14.4" spans="1:20">
       <c r="A25" s="2"/>
-      <c r="B25" s="21" t="s">
-        <v>41</v>
-      </c>
+      <c r="B25" s="21"/>
       <c r="C25" s="14"/>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
@@ -5879,11 +5827,9 @@
       <c r="S25" s="26"/>
       <c r="T25" s="69"/>
     </row>
-    <row r="26" ht="20" customHeight="1" spans="1:20">
+    <row r="26" ht="14.4" spans="1:20">
       <c r="A26" s="2"/>
-      <c r="B26" s="21" t="s">
-        <v>42</v>
-      </c>
+      <c r="B26" s="21"/>
       <c r="C26" s="14"/>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
@@ -5905,9 +5851,7 @@
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:20">
       <c r="A27" s="2"/>
-      <c r="B27" s="21" t="s">
-        <v>43</v>
-      </c>
+      <c r="B27" s="21"/>
       <c r="C27" s="14"/>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
@@ -5929,9 +5873,7 @@
     </row>
     <row r="28" ht="20" customHeight="1" spans="1:20">
       <c r="A28" s="2"/>
-      <c r="B28" s="21" t="s">
-        <v>44</v>
-      </c>
+      <c r="B28" s="21"/>
       <c r="C28" s="14"/>
       <c r="D28" s="23"/>
       <c r="E28" s="23"/>
@@ -5953,9 +5895,7 @@
     </row>
     <row r="29" ht="20" customHeight="1" spans="1:20">
       <c r="A29" s="2"/>
-      <c r="B29" s="21" t="s">
-        <v>45</v>
-      </c>
+      <c r="B29" s="21"/>
       <c r="C29" s="14"/>
       <c r="D29" s="23"/>
       <c r="E29" s="23"/>
@@ -5975,93 +5915,92 @@
       <c r="S29" s="26"/>
       <c r="T29" s="69"/>
     </row>
-    <row r="30" spans="2:10">
-      <c r="B30"/>
-      <c r="J30" s="51"/>
+    <row r="30" ht="20" customHeight="1" spans="1:20">
+      <c r="A30" s="2"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="69"/>
     </row>
-    <row r="31" ht="30" customHeight="1" spans="1:20">
-      <c r="A31" s="2"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
+    <row r="31" spans="2:10">
+      <c r="B31"/>
+      <c r="J31" s="51"/>
     </row>
-    <row r="32" ht="15.75" spans="2:20">
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="20" t="s">
+    <row r="32" ht="30" customHeight="1" spans="1:20">
+      <c r="A32" s="2"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+    </row>
+    <row r="33" ht="15.75" spans="2:20">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="I32" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="J32" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="K32" s="20" t="s">
+      <c r="I33" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="J33" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="K33" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L32" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="M32" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-    </row>
-    <row r="33" ht="40" customHeight="1" spans="2:20">
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="26"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="26"/>
+      <c r="L33" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="M33" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
     </row>
     <row r="34" ht="40" customHeight="1" spans="2:20">
       <c r="B34" s="26"/>
@@ -6070,9 +6009,7 @@
       <c r="E34" s="26"/>
       <c r="F34" s="26"/>
       <c r="G34" s="43"/>
-      <c r="H34" s="21" t="s">
-        <v>34</v>
-      </c>
+      <c r="H34" s="21"/>
       <c r="I34" s="52"/>
       <c r="J34" s="52"/>
       <c r="K34" s="52"/>
@@ -6093,9 +6030,7 @@
       <c r="E35" s="26"/>
       <c r="F35" s="26"/>
       <c r="G35" s="43"/>
-      <c r="H35" s="21" t="s">
-        <v>35</v>
-      </c>
+      <c r="H35" s="21"/>
       <c r="I35" s="52"/>
       <c r="J35" s="52"/>
       <c r="K35" s="52"/>
@@ -6116,9 +6051,7 @@
       <c r="E36" s="26"/>
       <c r="F36" s="26"/>
       <c r="G36" s="43"/>
-      <c r="H36" s="21" t="s">
-        <v>36</v>
-      </c>
+      <c r="H36" s="21"/>
       <c r="I36" s="52"/>
       <c r="J36" s="52"/>
       <c r="K36" s="52"/>
@@ -6139,9 +6072,7 @@
       <c r="E37" s="26"/>
       <c r="F37" s="26"/>
       <c r="G37" s="43"/>
-      <c r="H37" s="21" t="s">
-        <v>37</v>
-      </c>
+      <c r="H37" s="21"/>
       <c r="I37" s="52"/>
       <c r="J37" s="52"/>
       <c r="K37" s="52"/>
@@ -6162,9 +6093,7 @@
       <c r="E38" s="26"/>
       <c r="F38" s="26"/>
       <c r="G38" s="43"/>
-      <c r="H38" s="21" t="s">
-        <v>38</v>
-      </c>
+      <c r="H38" s="21"/>
       <c r="I38" s="52"/>
       <c r="J38" s="52"/>
       <c r="K38" s="52"/>
@@ -6185,14 +6114,12 @@
       <c r="E39" s="26"/>
       <c r="F39" s="26"/>
       <c r="G39" s="43"/>
-      <c r="H39" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="63"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="62"/>
       <c r="N39" s="26"/>
       <c r="O39" s="26"/>
       <c r="P39" s="26"/>
@@ -6201,115 +6128,115 @@
       <c r="S39" s="26"/>
       <c r="T39" s="26"/>
     </row>
-    <row r="41" ht="30" customHeight="1" spans="1:20">
-      <c r="A41" s="2"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
-      <c r="R41" s="17"/>
-      <c r="S41" s="17"/>
-      <c r="T41" s="17"/>
+    <row r="40" ht="40" customHeight="1" spans="2:20">
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="63"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="26"/>
+      <c r="R40" s="26"/>
+      <c r="S40" s="26"/>
+      <c r="T40" s="26"/>
     </row>
-    <row r="42" ht="15.75" spans="2:20">
-      <c r="B42" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20" t="s">
+    <row r="42" ht="30" customHeight="1" spans="1:20">
+      <c r="A42" s="2"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+    </row>
+    <row r="43" ht="15.75" spans="2:20">
+      <c r="B43" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G42" s="38"/>
-      <c r="H42" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="I42" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20" t="s">
+      <c r="G43" s="38"/>
+      <c r="H43" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="I43" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M42" s="38"/>
-      <c r="N42" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="O42" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="20" t="s">
+      <c r="M43" s="38"/>
+      <c r="N43" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="O43" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="S42" s="20" t="s">
+      <c r="S43" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="T42" s="20"/>
-    </row>
-    <row r="43" ht="40" customHeight="1" spans="2:20">
-      <c r="B43" s="26"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="62"/>
-      <c r="N43" s="47"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="22"/>
-      <c r="S43" s="22"/>
-      <c r="T43" s="26"/>
+      <c r="T43" s="20"/>
     </row>
     <row r="44" ht="40" customHeight="1" spans="2:20">
       <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="14"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="22"/>
       <c r="G44" s="43"/>
       <c r="H44" s="47"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="14"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="22"/>
       <c r="M44" s="62"/>
       <c r="N44" s="47"/>
-      <c r="O44" s="26"/>
-      <c r="P44" s="26"/>
-      <c r="Q44" s="26"/>
-      <c r="R44" s="14"/>
-      <c r="S44" s="14"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="22"/>
+      <c r="S44" s="22"/>
       <c r="T44" s="26"/>
     </row>
     <row r="45" ht="40" customHeight="1" spans="2:20">
@@ -6375,6 +6302,27 @@
       <c r="S47" s="14"/>
       <c r="T47" s="26"/>
     </row>
+    <row r="48" ht="40" customHeight="1" spans="2:20">
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="62"/>
+      <c r="N48" s="47"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="26"/>
+      <c r="Q48" s="26"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="26"/>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <mergeCells count="34">
@@ -6388,15 +6336,12 @@
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="L14:O14"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="N31:T31"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:M41"/>
-    <mergeCell ref="N41:T41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="O42:Q42"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="N32:T32"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:M42"/>
+    <mergeCell ref="N42:T42"/>
     <mergeCell ref="C43:E43"/>
     <mergeCell ref="I43:K43"/>
     <mergeCell ref="O43:Q43"/>
@@ -6412,6 +6357,9 @@
     <mergeCell ref="C47:E47"/>
     <mergeCell ref="I47:K47"/>
     <mergeCell ref="O47:Q47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="O48:Q48"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
